--- a/Assets/GameConfig/InteractionConfig.xlsx
+++ b/Assets/GameConfig/InteractionConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,10 @@
   </si>
   <si>
     <t>negativeCollectTimeCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -97,8 +101,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -382,7 +392,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B7" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -404,56 +414,65 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
+      <c r="C7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B4" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>